--- a/biology/Botanique/Protéine_de_soja/Protéine_de_soja.xlsx
+++ b/biology/Botanique/Protéine_de_soja/Protéine_de_soja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_de_soja</t>
+          <t>Protéine_de_soja</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les protéines de soja sont considérées comme la source la moins coûteuse de protéines de haute qualité nutritionnelle et sont donc les protéines végétales prédominantes disponibles dans le monde (Isobe et al, 2004)[Quoi ?].
 Les aliments fabriqués à partir de protéines de soja sont très populaires et traditionnels dans les pays asiatiques.
